--- a/PAUA/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PAUA\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PAUA\13 MATRIZ DE PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId5"/>
-    <pivotCache cacheId="50" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -452,9 +452,6 @@
     <t xml:space="preserve">Permitir acceder al menú de Adminstración </t>
   </si>
   <si>
-    <t xml:space="preserve">Roles de Usuario / Plataforma PDRMYOP </t>
-  </si>
-  <si>
     <t>http://10.200.4.165/</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t xml:space="preserve">Carga de Guías </t>
+  </si>
+  <si>
+    <t>Roles de Usuario / Plataforma PAUA</t>
   </si>
 </sst>
 </file>
@@ -1045,6 +1045,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,12 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1176,7 +1176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1483,9 +1482,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1506,9 +1503,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1529,17 +1524,14 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="18"/>
+        <c:idx val="17"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -1547,14 +1539,12 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="19"/>
+        <c:idx val="18"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout>
@@ -1570,14 +1560,12 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="20"/>
+        <c:idx val="19"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout>
@@ -1593,14 +1581,12 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="21"/>
+        <c:idx val="20"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout>
@@ -1616,14 +1602,12 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="22"/>
+        <c:idx val="21"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1640,12 +1624,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:pattFill prst="pct75">
               <a:fgClr>
@@ -1698,17 +1680,15 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="23"/>
+        <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1781,14 +1761,12 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="24"/>
+        <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1864,17 +1842,15 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="25"/>
+        <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1947,9 +1923,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2070,9 +2044,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2093,9 +2065,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2116,9 +2086,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2190,9 +2158,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2409,7 +2375,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2798,7 +2763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2919,7 +2883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3907,7 +3870,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6052,14 +6014,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="PAUA"/>
-      <sheetName val="GRAFICOS"/>
       <sheetName val="Datos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6663,7 +6621,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6738,7 +6696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6834,7 +6792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7200,10 +7158,10 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7224,94 +7182,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7365,13 +7323,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -7380,7 +7338,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -7390,7 +7348,7 @@
         <v>28</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N7" s="1">
         <v>45180</v>
@@ -7404,13 +7362,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -7419,7 +7377,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -7429,7 +7387,7 @@
         <v>28</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -7441,13 +7399,13 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -7456,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>52</v>
@@ -7479,7 +7437,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
@@ -7488,7 +7446,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>54</v>
@@ -7511,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -7520,7 +7478,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>72</v>
@@ -7540,7 +7498,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>73</v>
@@ -7560,7 +7518,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>74</v>
@@ -7569,7 +7527,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N13" s="1">
         <v>45183</v>
@@ -7588,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>75</v>
@@ -7608,7 +7566,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>76</v>
@@ -7628,7 +7586,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>77</v>
@@ -7648,7 +7606,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>78</v>
@@ -7668,7 +7626,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>79</v>
@@ -7677,7 +7635,7 @@
         <v>28</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N18" s="1">
         <v>45180</v>
@@ -7697,7 +7655,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>15</v>
@@ -7706,7 +7664,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>72</v>
@@ -7725,8 +7683,8 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>178</v>
+      <c r="H20" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>73</v>
@@ -7735,7 +7693,7 @@
         <v>28</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N20" s="1">
         <v>45180</v>
@@ -7753,7 +7711,7 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
@@ -7761,7 +7719,7 @@
         <v>28</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N21" s="1">
         <v>45180</v>
@@ -7780,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>75</v>
@@ -7800,7 +7758,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>76</v>
@@ -7820,7 +7778,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>77</v>
@@ -7840,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>78</v>
@@ -7872,11 +7830,11 @@
       <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>15</v>
@@ -7885,7 +7843,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>80</v>
@@ -7898,7 +7856,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>62</v>
@@ -7907,10 +7865,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="1">
@@ -7921,7 +7879,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="44"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7930,7 +7888,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>81</v>
@@ -7943,7 +7901,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="44"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>65</v>
@@ -7952,7 +7910,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>82</v>
@@ -7965,7 +7923,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="44"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>64</v>
@@ -7974,7 +7932,7 @@
         <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>83</v>
@@ -7987,7 +7945,7 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="44"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>60</v>
@@ -7996,7 +7954,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>79</v>
@@ -8005,7 +7963,7 @@
         <v>28</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N32" s="1">
         <v>45174</v>
@@ -8025,7 +7983,7 @@
         <v>55</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>15</v>
@@ -8034,7 +7992,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>98</v>
@@ -8056,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>69</v>
@@ -8079,7 +8037,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>102</v>
@@ -8088,7 +8046,7 @@
         <v>28</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N35" s="1">
         <v>45180</v>
@@ -8107,7 +8065,7 @@
         <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>103</v>
@@ -8128,7 +8086,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>57</v>
@@ -8148,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>79</v>
@@ -8157,7 +8115,7 @@
         <v>28</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N38" s="1">
         <v>45180</v>
@@ -8176,7 +8134,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>99</v>
@@ -8197,7 +8155,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>104</v>
@@ -8206,7 +8164,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>106</v>
@@ -8215,7 +8173,7 @@
         <v>28</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N40" s="1">
         <v>45180</v>
@@ -8234,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>107</v>
@@ -8254,7 +8212,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I42" s="23" t="s">
         <v>109</v>
@@ -8274,7 +8232,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I43" s="23" t="s">
         <v>83</v>
@@ -8294,7 +8252,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I44" s="23" t="s">
         <v>79</v>
@@ -8303,7 +8261,7 @@
         <v>28</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N44" s="1">
         <v>45180</v>
@@ -8323,7 +8281,7 @@
         <v>55</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>56</v>
@@ -8332,7 +8290,7 @@
         <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
         <v>75</v>
@@ -8352,7 +8310,7 @@
         <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I46" t="s">
         <v>81</v>
@@ -8372,7 +8330,7 @@
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
@@ -8381,7 +8339,7 @@
         <v>28</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N47" s="1">
         <v>45180</v>
@@ -8401,7 +8359,7 @@
         <v>55</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>15</v>
@@ -8410,7 +8368,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" t="s">
         <v>89</v>
@@ -8430,7 +8388,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s">
         <v>74</v>
@@ -8459,7 +8417,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N50" s="1">
         <v>45176</v>
@@ -8478,7 +8436,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" t="s">
         <v>90</v>
@@ -8507,7 +8465,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -8529,7 +8487,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" t="s">
         <v>82</v>
@@ -8551,10 +8509,10 @@
         <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N54" s="1">
         <v>45176</v>
@@ -8574,7 +8532,7 @@
         <v>55</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>15</v>
@@ -8583,10 +8541,10 @@
         <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N55" s="1">
         <v>45176</v>
@@ -8605,10 +8563,10 @@
         <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N56" s="1">
         <v>45176</v>
@@ -8627,10 +8585,10 @@
         <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N57" s="1">
         <v>45176</v>
@@ -8649,7 +8607,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I58" t="s">
         <v>96</v>
@@ -8671,7 +8629,7 @@
         <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I59" t="s">
         <v>97</v>
@@ -8687,16 +8645,16 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N60" s="1">
         <v>45176</v>
@@ -8709,16 +8667,16 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N61" s="1">
         <v>45176</v>
@@ -8731,16 +8689,16 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N62" s="1">
         <v>45176</v>
@@ -8748,7 +8706,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F63" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -8756,7 +8714,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F64" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
@@ -8764,6 +8722,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="D33:D39"/>
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="E33:E39"/>
     <mergeCell ref="B48:B54"/>
@@ -8780,38 +8770,6 @@
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
